--- a/PECL1/Lenguajes_CRA.xlsx
+++ b/PECL1/Lenguajes_CRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/gabriel_lopez_edu_uah_es/Documents/Curso18-19/Asignaturas/09.CRA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2018_2019/RAZONAMIENTO/LAB/PECL1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD1B1A2-CEFC-4686-BBA4-D6A2C921BC71}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D739C-1B9E-4A42-AEA3-9F28CA0E510B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2B7CAD38-D68D-4F12-948E-96AF7D0C6545}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="31780" windowHeight="16400" xr2:uid="{2B7CAD38-D68D-4F12-948E-96AF7D0C6545}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="108">
   <si>
     <t>BLOQUES C</t>
   </si>
@@ -361,9 +361,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -435,21 +442,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -465,11 +472,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,61 +798,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69337107-4A43-4855-8F3D-364F3A31086A}">
   <dimension ref="A1:BM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0" xr3:uid="{A4D998B8-4FFA-5E8E-9B0C-6EE4568E947B}">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AS64" sqref="AS64"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.7109375" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" customWidth="1"/>
-    <col min="36" max="36" width="17.5703125" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
-    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" customWidth="1"/>
+    <col min="35" max="35" width="14.5" customWidth="1"/>
+    <col min="36" max="36" width="17.5" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" customWidth="1"/>
+    <col min="38" max="38" width="13.5" customWidth="1"/>
+    <col min="39" max="39" width="20.5" customWidth="1"/>
     <col min="40" max="40" width="18" customWidth="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1"/>
-    <col min="42" max="42" width="12.28515625" customWidth="1"/>
-    <col min="43" max="43" width="42.42578125" customWidth="1"/>
-    <col min="44" max="44" width="34.7109375" customWidth="1"/>
+    <col min="41" max="41" width="28.5" customWidth="1"/>
+    <col min="42" max="42" width="12.33203125" customWidth="1"/>
+    <col min="43" max="43" width="42.5" customWidth="1"/>
+    <col min="44" max="44" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -973,7 +983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="15.75">
+    <row r="2" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -989,8 +999,8 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
+      <c r="F2" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -1128,7 +1138,7 @@
       <c r="BL2" s="4"/>
       <c r="BM2" s="4"/>
     </row>
-    <row r="3" spans="1:65" ht="15.75">
+    <row r="3" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1293,7 @@
       <c r="BL3" s="4"/>
       <c r="BM3" s="4"/>
     </row>
-    <row r="4" spans="1:65" ht="15.75">
+    <row r="4" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1438,7 +1448,7 @@
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
     </row>
-    <row r="5" spans="1:65" ht="15.75">
+    <row r="5" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1593,7 +1603,7 @@
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
     </row>
-    <row r="6" spans="1:65" ht="15.75">
+    <row r="6" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1748,7 +1758,7 @@
       <c r="BL6" s="4"/>
       <c r="BM6" s="4"/>
     </row>
-    <row r="7" spans="1:65" ht="15.75">
+    <row r="7" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1903,7 +1913,7 @@
       <c r="BL7" s="4"/>
       <c r="BM7" s="4"/>
     </row>
-    <row r="8" spans="1:65" ht="15.75">
+    <row r="8" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2058,7 +2068,7 @@
       <c r="BL8" s="4"/>
       <c r="BM8" s="4"/>
     </row>
-    <row r="9" spans="1:65" ht="15.75">
+    <row r="9" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2213,7 +2223,7 @@
       <c r="BL9" s="4"/>
       <c r="BM9" s="4"/>
     </row>
-    <row r="10" spans="1:65" ht="15.75">
+    <row r="10" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2368,7 +2378,7 @@
       <c r="BL10" s="4"/>
       <c r="BM10" s="4"/>
     </row>
-    <row r="11" spans="1:65" ht="15.75">
+    <row r="11" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2533,7 @@
       <c r="BL11" s="4"/>
       <c r="BM11" s="4"/>
     </row>
-    <row r="12" spans="1:65" ht="15.75">
+    <row r="12" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2688,7 @@
       <c r="BL12" s="4"/>
       <c r="BM12" s="4"/>
     </row>
-    <row r="13" spans="1:65" ht="15.75">
+    <row r="13" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2833,7 +2843,7 @@
       <c r="BL13" s="4"/>
       <c r="BM13" s="4"/>
     </row>
-    <row r="14" spans="1:65" ht="15.75">
+    <row r="14" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2988,7 +2998,7 @@
       <c r="BL14" s="4"/>
       <c r="BM14" s="4"/>
     </row>
-    <row r="15" spans="1:65" ht="15.75">
+    <row r="15" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3143,7 +3153,7 @@
       <c r="BL15" s="4"/>
       <c r="BM15" s="4"/>
     </row>
-    <row r="16" spans="1:65" ht="15.75">
+    <row r="16" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3308,7 @@
       <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
     </row>
-    <row r="17" spans="1:65" ht="15.75">
+    <row r="17" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -3453,7 +3463,7 @@
       <c r="BL17" s="4"/>
       <c r="BM17" s="4"/>
     </row>
-    <row r="18" spans="1:65" ht="15.75">
+    <row r="18" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -3608,7 +3618,7 @@
       <c r="BL18" s="4"/>
       <c r="BM18" s="4"/>
     </row>
-    <row r="19" spans="1:65" ht="15.75">
+    <row r="19" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -3763,7 +3773,7 @@
       <c r="BL19" s="4"/>
       <c r="BM19" s="4"/>
     </row>
-    <row r="20" spans="1:65" ht="15.75">
+    <row r="20" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -3918,7 +3928,7 @@
       <c r="BL20" s="4"/>
       <c r="BM20" s="4"/>
     </row>
-    <row r="21" spans="1:65" ht="15.75">
+    <row r="21" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -4073,7 +4083,7 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
     </row>
-    <row r="22" spans="1:65" ht="15.75">
+    <row r="22" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -4228,7 +4238,7 @@
       <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
     </row>
-    <row r="23" spans="1:65" ht="15.75">
+    <row r="23" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -4383,7 +4393,7 @@
       <c r="BL23" s="4"/>
       <c r="BM23" s="4"/>
     </row>
-    <row r="24" spans="1:65" ht="15.75">
+    <row r="24" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -4538,7 +4548,7 @@
       <c r="BL24" s="4"/>
       <c r="BM24" s="4"/>
     </row>
-    <row r="25" spans="1:65" ht="15.75">
+    <row r="25" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -4693,7 +4703,7 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="4"/>
     </row>
-    <row r="26" spans="1:65" ht="15.75">
+    <row r="26" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -4848,7 +4858,7 @@
       <c r="BL26" s="4"/>
       <c r="BM26" s="4"/>
     </row>
-    <row r="27" spans="1:65" ht="15.75">
+    <row r="27" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -5003,7 +5013,7 @@
       <c r="BL27" s="4"/>
       <c r="BM27" s="4"/>
     </row>
-    <row r="28" spans="1:65" ht="15.75">
+    <row r="28" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -5158,7 +5168,7 @@
       <c r="BL28" s="4"/>
       <c r="BM28" s="4"/>
     </row>
-    <row r="29" spans="1:65" ht="15.75">
+    <row r="29" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -5313,7 +5323,7 @@
       <c r="BL29" s="4"/>
       <c r="BM29" s="4"/>
     </row>
-    <row r="30" spans="1:65" ht="15.75">
+    <row r="30" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -5468,7 +5478,7 @@
       <c r="BL30" s="4"/>
       <c r="BM30" s="4"/>
     </row>
-    <row r="31" spans="1:65" ht="15.75">
+    <row r="31" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -5623,7 +5633,7 @@
       <c r="BL31" s="4"/>
       <c r="BM31" s="4"/>
     </row>
-    <row r="32" spans="1:65" ht="15.75">
+    <row r="32" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -5778,7 +5788,7 @@
       <c r="BL32" s="4"/>
       <c r="BM32" s="4"/>
     </row>
-    <row r="33" spans="1:65" ht="15.75">
+    <row r="33" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
@@ -5933,7 +5943,7 @@
       <c r="BL33" s="4"/>
       <c r="BM33" s="4"/>
     </row>
-    <row r="34" spans="1:65" ht="15.75">
+    <row r="34" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>76</v>
       </c>
@@ -6088,7 +6098,7 @@
       <c r="BL34" s="4"/>
       <c r="BM34" s="4"/>
     </row>
-    <row r="35" spans="1:65" ht="15.75">
+    <row r="35" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
@@ -6243,7 +6253,7 @@
       <c r="BL35" s="4"/>
       <c r="BM35" s="4"/>
     </row>
-    <row r="36" spans="1:65" ht="15.75">
+    <row r="36" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -6398,7 +6408,7 @@
       <c r="BL36" s="4"/>
       <c r="BM36" s="4"/>
     </row>
-    <row r="37" spans="1:65" ht="15.75">
+    <row r="37" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -6553,7 +6563,7 @@
       <c r="BL37" s="4"/>
       <c r="BM37" s="4"/>
     </row>
-    <row r="38" spans="1:65" ht="15.75">
+    <row r="38" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
@@ -6708,7 +6718,7 @@
       <c r="BL38" s="4"/>
       <c r="BM38" s="4"/>
     </row>
-    <row r="39" spans="1:65" ht="15.75">
+    <row r="39" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -6863,7 +6873,7 @@
       <c r="BL39" s="4"/>
       <c r="BM39" s="4"/>
     </row>
-    <row r="40" spans="1:65" ht="15.75">
+    <row r="40" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -7018,7 +7028,7 @@
       <c r="BL40" s="4"/>
       <c r="BM40" s="4"/>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
@@ -7173,7 +7183,7 @@
       <c r="BL41" s="4"/>
       <c r="BM41" s="4"/>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>84</v>
       </c>
@@ -7328,7 +7338,7 @@
       <c r="BL42" s="4"/>
       <c r="BM42" s="4"/>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>85</v>
       </c>
@@ -7483,7 +7493,7 @@
       <c r="BL43" s="4"/>
       <c r="BM43" s="4"/>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>86</v>
       </c>
@@ -7638,7 +7648,7 @@
       <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>87</v>
       </c>
@@ -7793,7 +7803,7 @@
       <c r="BL45" s="4"/>
       <c r="BM45" s="4"/>
     </row>
-    <row r="46" spans="1:65">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>88</v>
       </c>
@@ -7948,7 +7958,7 @@
       <c r="BL46" s="4"/>
       <c r="BM46" s="4"/>
     </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>89</v>
       </c>
@@ -8103,7 +8113,7 @@
       <c r="BL47" s="4"/>
       <c r="BM47" s="4"/>
     </row>
-    <row r="48" spans="1:65">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>90</v>
       </c>
@@ -8258,7 +8268,7 @@
       <c r="BL48" s="4"/>
       <c r="BM48" s="4"/>
     </row>
-    <row r="49" spans="1:65">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>91</v>
       </c>
@@ -8413,7 +8423,7 @@
       <c r="BL49" s="4"/>
       <c r="BM49" s="4"/>
     </row>
-    <row r="50" spans="1:65">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>92</v>
       </c>
@@ -8568,7 +8578,7 @@
       <c r="BL50" s="4"/>
       <c r="BM50" s="4"/>
     </row>
-    <row r="51" spans="1:65">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>93</v>
       </c>
@@ -8723,7 +8733,7 @@
       <c r="BL51" s="4"/>
       <c r="BM51" s="4"/>
     </row>
-    <row r="52" spans="1:65">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>94</v>
       </c>
@@ -8878,7 +8888,7 @@
       <c r="BL52" s="4"/>
       <c r="BM52" s="4"/>
     </row>
-    <row r="53" spans="1:65">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>95</v>
       </c>
@@ -9033,7 +9043,7 @@
       <c r="BL53" s="4"/>
       <c r="BM53" s="4"/>
     </row>
-    <row r="54" spans="1:65">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>96</v>
       </c>
@@ -9188,7 +9198,7 @@
       <c r="BL54" s="4"/>
       <c r="BM54" s="4"/>
     </row>
-    <row r="55" spans="1:65">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>97</v>
       </c>
@@ -9322,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:65">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>98</v>
       </c>
@@ -9456,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:65">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>99</v>
       </c>
@@ -9590,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:65">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>100</v>
       </c>
@@ -9724,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:65">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>101</v>
       </c>
@@ -9858,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:65">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>102</v>
       </c>
@@ -9992,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:65">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>103</v>
       </c>
@@ -10126,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:65">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>104</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:65">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>105</v>
       </c>
@@ -10394,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:65">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>106</v>
       </c>
@@ -10528,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>107</v>
       </c>
